--- a/biology/Zoologie/Corealithus_coreanus/Corealithus_coreanus.xlsx
+++ b/biology/Zoologie/Corealithus_coreanus/Corealithus_coreanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corealithus coreanus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corealithus coreanus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud, au Japon et en Russie aux îles Kouriles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud, au Japon et en Russie aux îles Kouriles.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,96 mm[2].
-Les mâles mesurent de 2,08 à 2,50 mm et les femelles de 2,37 à 3,20 mm[3].
-Les mâles mesurent de 2,12 à 2,36 mm et les femelles de 2,40 à 3,02 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,96 mm.
+Les mâles mesurent de 2,08 à 2,50 mm et les femelles de 2,37 à 3,20 mm.
+Les mâles mesurent de 2,12 à 2,36 mm et les femelles de 2,40 à 3,02 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus coreanus par Paik en 1991. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020[5] puis dans le genre Corealithus par Kamura en 2021[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus coreanus par Paik en 1991. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020 puis dans le genre Corealithus par Kamura en 2021.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Corée.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paik, 1991 : « Korean spiders of the genus Phrurolithus (Araneae: Clubionidae). » Korean Arachnology, vol. 6, p. 171-196.</t>
         </is>
